--- a/output/rank_rj.xlsx
+++ b/output/rank_rj.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>City</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Duque de Caxias</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Nova Iguaçu</t>
@@ -96,11 +99,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -111,9 +114,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,90 +176,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,7 +198,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,16 +220,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +250,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -271,187 +274,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,21 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -519,27 +507,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,175 +553,213 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="44" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="44" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,7 +1105,7 @@
   <dimension ref="H3:P33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1104,7 +1119,7 @@
     <col min="8" max="8" width="15.3" customWidth="1"/>
     <col min="9" max="9" width="5.3" customWidth="1"/>
     <col min="10" max="10" width="5.4" customWidth="1"/>
-    <col min="11" max="11" width="3.5" customWidth="1"/>
+    <col min="11" max="11" width="5.8" customWidth="1"/>
     <col min="12" max="12" width="4" customWidth="1"/>
     <col min="13" max="13" width="8.4" customWidth="1"/>
     <col min="14" max="14" width="6.8" customWidth="1"/>
@@ -1145,28 +1160,28 @@
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <v>2019</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>94</v>
       </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="K4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="5">
         <v>94</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="5">
         <v>94</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>94</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="5">
         <v>94</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="5">
         <v>94</v>
       </c>
     </row>
@@ -1174,850 +1189,844 @@
       <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <v>2020</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>94</v>
       </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="K5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5">
         <v>94</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="5">
         <v>94</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>94</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="5">
         <v>94</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="5">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="8:16">
       <c r="H6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2020</v>
+      </c>
+      <c r="J6" s="5">
+        <v>93</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="2">
-        <v>2020</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="L6" s="5">
         <v>93</v>
       </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="M6" s="5">
         <v>93</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="5">
         <v>93</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="5">
         <v>93</v>
       </c>
-      <c r="O6" s="4">
-        <v>93</v>
-      </c>
-      <c r="P6" s="4">
+      <c r="P6" s="5">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="8:16">
       <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="2">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4">
         <v>2019</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
         <v>92.7741935483871</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="6">
         <v>0.425023718503241</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="5">
         <v>92</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="5">
         <v>93</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>93</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="5">
         <v>93</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="5">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="8:16">
       <c r="H8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="2">
+        <v>11</v>
+      </c>
+      <c r="I8" s="4">
         <v>2019</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="5">
         <v>92.2258064516129</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="6">
         <v>0.425023718503241</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="5">
         <v>92</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="5">
         <v>92</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>92</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="5">
         <v>92</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="5">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="8:16">
       <c r="H9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="2">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4">
         <v>2020</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="5">
         <v>92</v>
       </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="K9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="5">
         <v>92</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="5">
         <v>92</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>92</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="5">
         <v>92</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="5">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="8:16">
       <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="2">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4">
         <v>2019</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="5">
         <v>91</v>
       </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="K10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="5">
         <v>91</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="5">
         <v>91</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>91</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="5">
         <v>91</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="5">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="8:16">
       <c r="H11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="2">
+        <v>13</v>
+      </c>
+      <c r="I11" s="4">
         <v>2020</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="5">
         <v>91</v>
       </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="K11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="5">
         <v>91</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="5">
         <v>91</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="5">
         <v>91</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="5">
         <v>91</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="5">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="8:16">
       <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="2">
+        <v>14</v>
+      </c>
+      <c r="I12" s="4">
         <v>2020</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="5">
         <v>89.9333333333333</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="6">
         <v>0.253708131702462</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="5">
         <v>89</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="5">
         <v>90</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>90</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="5">
         <v>90</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="5">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="8:16">
       <c r="H13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="2">
+        <v>15</v>
+      </c>
+      <c r="I13" s="4">
         <v>2019</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="5">
         <v>89.741935483871</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="6">
         <v>0.514311315287014</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="5">
         <v>88</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="5">
         <v>90</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>90</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="5">
         <v>90</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="5">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="8:16">
       <c r="H14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="2">
+        <v>14</v>
+      </c>
+      <c r="I14" s="4">
         <v>2019</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="5">
         <v>89</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="6">
         <v>0.516397779494322</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="5">
         <v>88</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="5">
         <v>89</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>89</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="5">
         <v>89</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="5">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="8:16">
       <c r="H15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="2">
+        <v>16</v>
+      </c>
+      <c r="I15" s="4">
         <v>2020</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="5">
         <v>88.9333333333333</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="6">
         <v>0.365148371670111</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="5">
         <v>88</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="5">
         <v>89</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>89</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="5">
         <v>89</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="5">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="8:16">
       <c r="H16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="2">
+        <v>16</v>
+      </c>
+      <c r="I16" s="4">
         <v>2019</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="5">
         <v>88.258064516129</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="6">
         <v>0.630753091443547</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="5">
         <v>88</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="5">
         <v>88</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>88</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="5">
         <v>88</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="5">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="8:16">
       <c r="H17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="2">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4">
         <v>2020</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="5">
         <v>88.1333333333333</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="6">
         <v>0.434172485455305</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="5">
         <v>88</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="5">
         <v>88</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>88</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="5">
         <v>88</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="5">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="8:16">
       <c r="H18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="2">
+        <v>17</v>
+      </c>
+      <c r="I18" s="4">
         <v>2020</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="5">
         <v>86.9</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="6">
         <v>0.305128576629365</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="5">
         <v>86</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="5">
         <v>87</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>87</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="5">
         <v>87</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="5">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="8:16">
       <c r="H19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="2">
+        <v>18</v>
+      </c>
+      <c r="I19" s="4">
         <v>2019</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="5">
         <v>86.5161290322581</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="6">
         <v>1.02862263057403</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="5">
         <v>83</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="5">
         <v>86.5</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="5">
         <v>87</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="5">
         <v>87</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="5">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="8:16">
       <c r="H20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="2">
+        <v>18</v>
+      </c>
+      <c r="I20" s="4">
         <v>2020</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="5">
         <v>86.1</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="6">
         <v>0.305128576629365</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="5">
         <v>86</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="5">
         <v>86</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>86</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="5">
         <v>86</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="5">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="8:16">
       <c r="H21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="2">
+        <v>17</v>
+      </c>
+      <c r="I21" s="4">
         <v>2019</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="5">
         <v>86.0967741935484</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="6">
         <v>0.472922735738614</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="5">
         <v>85</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="5">
         <v>86</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>86</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="5">
         <v>86</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="5">
         <v>87</v>
       </c>
     </row>
     <row r="22" spans="8:16">
       <c r="H22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="2">
+        <v>19</v>
+      </c>
+      <c r="I22" s="4">
         <v>2020</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="5">
         <v>84.9666666666667</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="6">
         <v>0.182574185835055</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="5">
         <v>84</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="5">
         <v>85</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>85</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="5">
         <v>85</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="5">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="8:16">
       <c r="H23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="2">
+        <v>19</v>
+      </c>
+      <c r="I23" s="4">
         <v>2019</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="5">
         <v>83.758064516129</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="6">
         <v>0.973575606907646</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="5">
         <v>80</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="5">
         <v>84</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>84</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="5">
         <v>84</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="5">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="8:16">
       <c r="H24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="2">
+        <v>20</v>
+      </c>
+      <c r="I24" s="4">
         <v>2020</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="5">
         <v>83.7333333333333</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="6">
         <v>0.739679955644067</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="5">
         <v>82</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="5">
         <v>84</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>84</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="5">
         <v>84</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="5">
         <v>85</v>
       </c>
     </row>
     <row r="25" spans="8:16">
       <c r="H25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="2">
+        <v>21</v>
+      </c>
+      <c r="I25" s="4">
         <v>2020</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="5">
         <v>83</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="6">
         <v>0.694808333779651</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="5">
         <v>81</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="5">
         <v>83</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>83</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="5">
         <v>83</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="5">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="8:16">
       <c r="H26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="2">
+        <v>20</v>
+      </c>
+      <c r="I26" s="4">
         <v>2019</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="5">
         <v>82.4838709677419</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="6">
         <v>0.995689635108434</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="5">
         <v>80</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="5">
         <v>83</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>83</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="5">
         <v>83</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="5">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="8:16">
       <c r="H27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="2">
+        <v>22</v>
+      </c>
+      <c r="I27" s="4">
         <v>2020</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="5">
         <v>82.2333333333333</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="6">
         <v>0.430183067152076</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="5">
         <v>82</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="5">
         <v>82</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>82</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="5">
         <v>82</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="5">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="8:16">
       <c r="H28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="2">
+        <v>22</v>
+      </c>
+      <c r="I28" s="4">
         <v>2019</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="5">
         <v>82</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="6">
         <v>0.516397779494322</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="5">
         <v>80</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="5">
         <v>82</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>82</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="5">
         <v>82</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="5">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="8:16">
       <c r="H29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="2">
+        <v>23</v>
+      </c>
+      <c r="I29" s="4">
         <v>2019</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="5">
         <v>81.4677419354839</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="6">
         <v>1.271059163788</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="5">
         <v>80</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="5">
         <v>81</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>81</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="5">
         <v>81</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="5">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="8:16">
       <c r="H30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="2">
+        <v>23</v>
+      </c>
+      <c r="I30" s="4">
         <v>2020</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="5">
         <v>81.0666666666667</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="6">
         <v>0.253708131702462</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="5">
         <v>81</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="5">
         <v>81</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>81</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="5">
         <v>81</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="5">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="8:16">
       <c r="H31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="2">
+        <v>21</v>
+      </c>
+      <c r="I31" s="4">
         <v>2019</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="5">
         <v>80.6129032258064</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="6">
         <v>1.49838622868824</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="5">
         <v>80</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="5">
         <v>80</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>80</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="5">
         <v>80</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="5">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="8:16">
       <c r="H32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="2">
+        <v>24</v>
+      </c>
+      <c r="I32" s="4">
         <v>2020</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="5">
         <v>79.8666666666667</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="6">
         <v>0.34574590364176</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="5">
         <v>79</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="5">
         <v>80</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>80</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="5">
         <v>80</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="5">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="8:16">
       <c r="H33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="3">
+        <v>24</v>
+      </c>
+      <c r="I33" s="7">
         <v>2019</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="8">
         <v>78.9032258064516</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="9">
         <v>0.396218686222429</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="8">
         <v>77</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="8">
         <v>79</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="8">
         <v>79</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="8">
         <v>79</v>
       </c>
-      <c r="P33" s="5">
+      <c r="P33" s="8">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H3:P33">
-    <sortState ref="H4:P33">
-      <sortCondition ref="J1" descending="1"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
